--- a/tables/BT/BT_IDs_not_found_total_encounter_summary.xlsx
+++ b/tables/BT/BT_IDs_not_found_total_encounter_summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t xml:space="preserve">Prey_ID</t>
   </si>
@@ -41,16 +41,25 @@
     <t xml:space="preserve">min_dist_pike</t>
   </si>
   <si>
+    <t xml:space="preserve">num_days_25_encounters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">num_days_100_encounters</t>
+  </si>
+  <si>
     <t xml:space="preserve">num_days_min_dist_less_0.2m</t>
   </si>
   <si>
-    <t xml:space="preserve">num_days_25_encounters</t>
-  </si>
-  <si>
     <t xml:space="preserve">first_date_over_25</t>
   </si>
   <si>
-    <t xml:space="preserve">consecutive_days</t>
+    <t xml:space="preserve">consecutive_days_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">first_date_over_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consecutive_days_100</t>
   </si>
   <si>
     <t xml:space="preserve">n_poor_tracking_days</t>
@@ -512,13 +521,22 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -530,7 +548,7 @@
         <v>44830</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G2" t="n">
         <v>0.530690655036246</v>
@@ -539,25 +557,28 @@
         <v>44831</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J2"/>
       <c r="K2"/>
-      <c r="L2" s="1"/>
-      <c r="M2"/>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="L2"/>
+      <c r="M2" s="1"/>
+      <c r="N2"/>
+      <c r="O2" s="1"/>
+      <c r="P2"/>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3" t="n">
         <v>7</v>
@@ -569,7 +590,7 @@
         <v>44836</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G3" t="n">
         <v>0.239439675030801</v>
@@ -578,25 +599,28 @@
         <v>44834</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J3"/>
       <c r="K3"/>
-      <c r="L3" s="1"/>
-      <c r="M3"/>
-      <c r="N3" t="n">
+      <c r="L3"/>
+      <c r="M3" s="1"/>
+      <c r="N3"/>
+      <c r="O3" s="1"/>
+      <c r="P3"/>
+      <c r="Q3" t="n">
         <v>7</v>
       </c>
-      <c r="O3" t="n">
+      <c r="R3" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -608,7 +632,7 @@
         <v>44830</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G4" t="n">
         <v>0.506416386182834</v>
@@ -617,25 +641,28 @@
         <v>44856</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
-      <c r="L4" s="1"/>
-      <c r="M4"/>
-      <c r="N4" t="n">
+      <c r="L4"/>
+      <c r="M4" s="1"/>
+      <c r="N4"/>
+      <c r="O4" s="1"/>
+      <c r="P4"/>
+      <c r="Q4" t="n">
         <v>10</v>
       </c>
-      <c r="O4" t="n">
+      <c r="R4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -647,7 +674,7 @@
         <v>44840</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G5" t="n">
         <v>0.428156659090041</v>
@@ -656,25 +683,28 @@
         <v>44840</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
-      <c r="L5" s="1"/>
-      <c r="M5"/>
-      <c r="N5" t="n">
+      <c r="L5"/>
+      <c r="M5" s="1"/>
+      <c r="N5"/>
+      <c r="O5" s="1"/>
+      <c r="P5"/>
+      <c r="Q5" t="n">
         <v>11</v>
       </c>
-      <c r="O5" t="n">
+      <c r="R5" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
@@ -686,7 +716,7 @@
         <v>44832</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G6" t="n">
         <v>0.388781801910773</v>
@@ -695,25 +725,28 @@
         <v>44832</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>
-      <c r="L6" s="1"/>
-      <c r="M6"/>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="L6"/>
+      <c r="M6" s="1"/>
+      <c r="N6"/>
+      <c r="O6" s="1"/>
+      <c r="P6"/>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C7" t="n">
         <v>16</v>
@@ -725,7 +758,7 @@
         <v>44830</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G7" t="n">
         <v>0.130376690014657</v>
@@ -734,31 +767,38 @@
         <v>44830</v>
       </c>
       <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>17</v>
       </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>17</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="R7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
         <v>20</v>
@@ -770,7 +810,7 @@
         <v>44839</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G8" t="n">
         <v>0.11186659463165</v>
@@ -779,31 +819,38 @@
         <v>44839</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
+      <c r="M8" s="1"/>
       <c r="N8" t="n">
         <v>0</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8" s="1"/>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
         <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
       </c>
       <c r="C9" t="n">
         <v>30</v>
@@ -815,7 +862,7 @@
         <v>44846</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G9" t="n">
         <v>0.150296783489681</v>
@@ -824,31 +871,38 @@
         <v>44846</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>2</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M9" s="1"/>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>8</v>
       </c>
-      <c r="O9" t="n">
+      <c r="R9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
         <v>10</v>
@@ -860,7 +914,7 @@
         <v>44832</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G10" t="n">
         <v>0.322134958426912</v>
@@ -869,25 +923,28 @@
         <v>44850</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J10"/>
       <c r="K10"/>
-      <c r="L10" s="1"/>
-      <c r="M10"/>
-      <c r="N10" t="n">
+      <c r="L10"/>
+      <c r="M10" s="1"/>
+      <c r="N10"/>
+      <c r="O10" s="1"/>
+      <c r="P10"/>
+      <c r="Q10" t="n">
         <v>14</v>
       </c>
-      <c r="O10" t="n">
+      <c r="R10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -899,7 +956,7 @@
         <v>44836</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G11" t="n">
         <v>0.309309294686884</v>
@@ -908,25 +965,28 @@
         <v>44836</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J11"/>
       <c r="K11"/>
-      <c r="L11" s="1"/>
-      <c r="M11"/>
-      <c r="N11" t="n">
+      <c r="L11"/>
+      <c r="M11" s="1"/>
+      <c r="N11"/>
+      <c r="O11" s="1"/>
+      <c r="P11"/>
+      <c r="Q11" t="n">
         <v>9</v>
       </c>
-      <c r="O11" t="n">
+      <c r="R11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C12" t="n">
         <v>9</v>
@@ -938,7 +998,7 @@
         <v>44836</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G12" t="n">
         <v>0.381869049060756</v>
@@ -947,25 +1007,28 @@
         <v>44836</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J12"/>
       <c r="K12"/>
-      <c r="L12" s="1"/>
-      <c r="M12"/>
-      <c r="N12" t="n">
+      <c r="L12"/>
+      <c r="M12" s="1"/>
+      <c r="N12"/>
+      <c r="O12" s="1"/>
+      <c r="P12"/>
+      <c r="Q12" t="n">
         <v>14</v>
       </c>
-      <c r="O12" t="n">
+      <c r="R12" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C13" t="n">
         <v>4</v>
@@ -977,7 +1040,7 @@
         <v>44832</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G13" t="n">
         <v>0.286668810524529</v>
@@ -986,25 +1049,28 @@
         <v>44833</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J13"/>
       <c r="K13"/>
-      <c r="L13" s="1"/>
-      <c r="M13"/>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="L13"/>
+      <c r="M13" s="1"/>
+      <c r="N13"/>
+      <c r="O13" s="1"/>
+      <c r="P13"/>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C14" t="n">
         <v>138406</v>
@@ -1016,7 +1082,7 @@
         <v>44846</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G14" t="n">
         <v>0.0560633397190546</v>
@@ -1025,33 +1091,42 @@
         <v>44846</v>
       </c>
       <c r="I14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K14" t="n">
         <v>13</v>
       </c>
-      <c r="L14" s="1" t="n">
+      <c r="L14" t="n">
+        <v>12</v>
+      </c>
+      <c r="M14" s="1" t="n">
         <v>44836</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>13</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" s="1" t="n">
+        <v>44836</v>
+      </c>
+      <c r="P14" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q14" t="n">
         <v>27</v>
       </c>
-      <c r="O14" t="n">
+      <c r="R14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C15" t="n">
         <v>6</v>
@@ -1063,7 +1138,7 @@
         <v>44833</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G15" t="n">
         <v>0.235434426266942</v>
@@ -1072,25 +1147,28 @@
         <v>44850</v>
       </c>
       <c r="I15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J15"/>
       <c r="K15"/>
-      <c r="L15" s="1"/>
-      <c r="M15"/>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="L15"/>
+      <c r="M15" s="1"/>
+      <c r="N15"/>
+      <c r="O15" s="1"/>
+      <c r="P15"/>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C16" t="n">
         <v>120</v>
@@ -1102,7 +1180,7 @@
         <v>44841</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G16" t="n">
         <v>0.151931456321788</v>
@@ -1111,7 +1189,7 @@
         <v>44841</v>
       </c>
       <c r="I16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1119,25 +1197,34 @@
       <c r="K16" t="n">
         <v>1</v>
       </c>
-      <c r="L16" s="1" t="n">
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1" t="n">
         <v>44841</v>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>1</v>
       </c>
-      <c r="N16" t="n">
+      <c r="O16" s="1" t="n">
+        <v>44841</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
         <v>13</v>
       </c>
-      <c r="O16" t="n">
+      <c r="R16" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C17" t="n">
         <v>37</v>
@@ -1149,7 +1236,7 @@
         <v>44836</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G17" t="n">
         <v>0.212279821942383</v>
@@ -1158,25 +1245,28 @@
         <v>44836</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J17"/>
       <c r="K17"/>
-      <c r="L17" s="1"/>
-      <c r="M17"/>
-      <c r="N17" t="n">
+      <c r="L17"/>
+      <c r="M17" s="1"/>
+      <c r="N17"/>
+      <c r="O17" s="1"/>
+      <c r="P17"/>
+      <c r="Q17" t="n">
         <v>8</v>
       </c>
-      <c r="O17" t="n">
+      <c r="R17" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C18" t="n">
         <v>8</v>
@@ -1188,7 +1278,7 @@
         <v>44832</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G18" t="n">
         <v>0.188711506164942</v>
@@ -1197,31 +1287,38 @@
         <v>44832</v>
       </c>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>1</v>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" s="1"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
+      <c r="M18" s="1"/>
       <c r="N18" t="n">
         <v>0</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O18" s="1"/>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C19" t="n">
         <v>8</v>
@@ -1233,7 +1330,7 @@
         <v>44832</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G19" t="n">
         <v>0.261984657016244</v>
@@ -1242,16 +1339,19 @@
         <v>44832</v>
       </c>
       <c r="I19" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J19"/>
       <c r="K19"/>
-      <c r="L19" s="1"/>
-      <c r="M19"/>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
+      <c r="L19"/>
+      <c r="M19" s="1"/>
+      <c r="N19"/>
+      <c r="O19" s="1"/>
+      <c r="P19"/>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
         <v>0</v>
       </c>
     </row>
